--- a/data/trans_orig/P57B4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5CDDB0E-E74C-4A99-A095-4605B7453A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29CD545B-29D6-415C-81C8-5F146B5998A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D26AE322-C81A-40BF-94C9-2C3A5457D6BF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DB0094F-4A2D-4FA4-9BAF-6F158DB9A8CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>27,77%</t>
   </si>
   <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
   </si>
   <si>
     <t>20,86%</t>
   </si>
   <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
   </si>
   <si>
     <t>23,59%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>47,58%</t>
   </si>
   <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
+    <t>43,67%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
   </si>
   <si>
     <t>47,74%</t>
   </si>
   <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,28 +134,28 @@
     <t>20,2%</t>
   </si>
   <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
   </si>
   <si>
     <t>23,58%</t>
   </si>
   <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -164,28 +164,28 @@
     <t>4,45%</t>
   </si>
   <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,322 +197,322 @@
     <t>47,79%</t>
   </si>
   <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
   </si>
   <si>
     <t>41,63%</t>
   </si>
   <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
   </si>
   <si>
     <t>44,65%</t>
   </si>
   <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
   </si>
   <si>
     <t>39,68%</t>
   </si>
   <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
   </si>
   <si>
     <t>43,48%</t>
   </si>
   <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
   </si>
   <si>
     <t>41,62%</t>
   </si>
   <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>43,68%</t>
   </si>
   <si>
     <t>10,69%</t>
   </si>
   <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
   </si>
   <si>
     <t>12,33%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,38%</t>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>45,78%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>45,1%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>46,11%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>38,98%</t>
+  </si>
+  <si>
+    <t>45,53%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>45,01%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>3,63%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DC83E6-C9A5-48D9-BBC9-7BC498D16005}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EFA68E-56DC-4053-A2BF-0C4EA8A854A1}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1494,10 +1494,10 @@
         <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,7 +1553,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1565,13 +1565,13 @@
         <v>307807</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>408</v>
@@ -1580,13 +1580,13 @@
         <v>320706</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>693</v>
@@ -1595,13 +1595,13 @@
         <v>628514</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,13 +1616,13 @@
         <v>281581</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>448</v>
@@ -1631,13 +1631,13 @@
         <v>300981</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>759</v>
@@ -1646,13 +1646,13 @@
         <v>582562</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,13 +1667,13 @@
         <v>68129</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>128</v>
@@ -1682,13 +1682,13 @@
         <v>76456</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>199</v>
@@ -1697,13 +1697,13 @@
         <v>144585</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1718,13 @@
         <v>14800</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -1733,10 +1733,10 @@
         <v>12889</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>120</v>
@@ -1891,10 +1891,10 @@
         <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>4042</v>
@@ -1903,13 +1903,13 @@
         <v>3056446</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57B4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29CD545B-29D6-415C-81C8-5F146B5998A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8818BDD-B640-4570-B381-B98AC0885EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2DB0094F-4A2D-4FA4-9BAF-6F158DB9A8CC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{39B29EB4-F064-4284-A435-C4125F51BD92}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -927,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68EFA68E-56DC-4053-A2BF-0C4EA8A854A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18DAF2A-7750-4C72-A5FB-A8C80B44AAC0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P57B4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8818BDD-B640-4570-B381-B98AC0885EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{785B8F87-4229-4A5C-AC91-E96B31773639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{39B29EB4-F064-4284-A435-C4125F51BD92}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06986F04-2FDF-4C58-AF41-18960AC51AD6}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>27,77%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
   </si>
   <si>
     <t>20,86%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
   </si>
   <si>
     <t>23,59%</t>
   </si>
   <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
@@ -104,28 +104,28 @@
     <t>47,58%</t>
   </si>
   <si>
-    <t>43,67%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
   </si>
   <si>
     <t>47,74%</t>
   </si>
   <si>
-    <t>44,52%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
+    <t>44,87%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
   </si>
   <si>
     <t>47,68%</t>
   </si>
   <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
+    <t>45,22%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
   </si>
   <si>
     <t>En algún momento</t>
@@ -134,28 +134,28 @@
     <t>20,2%</t>
   </si>
   <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>25,79%</t>
   </si>
   <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>28,82%</t>
   </si>
   <si>
     <t>23,58%</t>
   </si>
   <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
@@ -164,28 +164,28 @@
     <t>4,45%</t>
   </si>
   <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
   </si>
   <si>
     <t>100%</t>
@@ -197,105 +197,108 @@
     <t>47,79%</t>
   </si>
   <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
+    <t>45,2%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
   </si>
   <si>
     <t>41,63%</t>
   </si>
   <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
+    <t>37,96%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
   </si>
   <si>
     <t>44,65%</t>
   </si>
   <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
   </si>
   <si>
     <t>39,68%</t>
   </si>
   <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
+    <t>36,1%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
   </si>
   <si>
     <t>43,48%</t>
   </si>
   <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
+    <t>36,78%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
   </si>
   <si>
     <t>41,62%</t>
   </si>
   <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>43,68%</t>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
   </si>
   <si>
     <t>10,69%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
   </si>
   <si>
     <t>12,33%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
   </si>
   <si>
     <t>11,52%</t>
   </si>
   <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
   </si>
   <si>
     <t>1,85%</t>
   </si>
   <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
   </si>
   <si>
     <t>2,56%</t>
   </si>
   <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
   </si>
   <si>
     <t>2,21%</t>
   </si>
   <si>
+    <t>1,83%</t>
+  </si>
+  <si>
     <t>2,72%</t>
   </si>
   <si>
@@ -305,109 +308,106 @@
     <t>45,78%</t>
   </si>
   <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
   </si>
   <si>
     <t>45,1%</t>
   </si>
   <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
+    <t>41,47%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
   </si>
   <si>
     <t>45,43%</t>
   </si>
   <si>
-    <t>42,63%</t>
-  </si>
-  <si>
-    <t>47,91%</t>
+    <t>42,56%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
   </si>
   <si>
     <t>41,88%</t>
   </si>
   <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
   </si>
   <si>
     <t>42,33%</t>
   </si>
   <si>
-    <t>38,98%</t>
-  </si>
-  <si>
-    <t>45,53%</t>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
   </si>
   <si>
     <t>42,11%</t>
   </si>
   <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
   </si>
   <si>
     <t>10,13%</t>
   </si>
   <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>10,75%</t>
   </si>
   <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
   </si>
   <si>
     <t>10,45%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
   </si>
   <si>
     <t>2,2%</t>
   </si>
   <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
+    <t>3,09%</t>
   </si>
   <si>
     <t>2,0%</t>
   </si>
   <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>44,2%</t>
@@ -416,49 +416,49 @@
     <t>42,03%</t>
   </si>
   <si>
-    <t>47,12%</t>
+    <t>46,98%</t>
   </si>
   <si>
     <t>37,78%</t>
   </si>
   <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
   </si>
   <si>
     <t>40,81%</t>
   </si>
   <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
   </si>
   <si>
     <t>41,38%</t>
   </si>
   <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
+    <t>38,95%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
   </si>
   <si>
     <t>44,19%</t>
   </si>
   <si>
-    <t>46,14%</t>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
   </si>
   <si>
     <t>42,86%</t>
   </si>
   <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
+    <t>40,25%</t>
   </si>
   <si>
     <t>12,09%</t>
@@ -467,52 +467,52 @@
     <t>10,94%</t>
   </si>
   <si>
-    <t>13,31%</t>
+    <t>13,27%</t>
   </si>
   <si>
     <t>14,95%</t>
   </si>
   <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
   </si>
   <si>
     <t>13,6%</t>
   </si>
   <si>
-    <t>12,68%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
   </si>
   <si>
     <t>3,08%</t>
   </si>
   <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
   </si>
   <si>
     <t>2,73%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +927,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18DAF2A-7750-4C72-A5FB-A8C80B44AAC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB63CF0-5267-48FC-B4B1-0BC4FFAACDAA}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1494,10 +1494,10 @@
         <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1553,7 +1553,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1565,13 +1565,13 @@
         <v>307807</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>408</v>
@@ -1580,13 +1580,13 @@
         <v>320706</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>693</v>
@@ -1595,13 +1595,13 @@
         <v>628514</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,13 +1616,13 @@
         <v>281581</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>448</v>
@@ -1631,13 +1631,13 @@
         <v>300981</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>759</v>
@@ -1646,13 +1646,13 @@
         <v>582562</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,13 +1667,13 @@
         <v>68129</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>128</v>
@@ -1682,13 +1682,13 @@
         <v>76456</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>199</v>
@@ -1697,13 +1697,13 @@
         <v>144585</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1718,13 +1718,13 @@
         <v>14800</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -1733,10 +1733,10 @@
         <v>12889</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>120</v>
@@ -1891,10 +1891,10 @@
         <v>136</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M20" s="7">
         <v>4042</v>
@@ -1903,13 +1903,13 @@
         <v>3056446</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P57B4_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P57B4_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{785B8F87-4229-4A5C-AC91-E96B31773639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11906293-1209-415B-B6D4-1110A06DBBAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{06986F04-2FDF-4C58-AF41-18960AC51AD6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{286C928F-247A-416F-AE60-E3F6F638B20A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="161">
   <si>
     <t>Población según si ha tenido la sensación de disfrutar de la vida en 2023 (Tasa respuesta: 99,17%)</t>
   </si>
@@ -71,121 +71,121 @@
     <t>Todo o casi todo el tiempo</t>
   </si>
   <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
+    <t>27,44%</t>
   </si>
   <si>
     <t>23,59%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
   </si>
   <si>
     <t>Buena parte del tiempo</t>
   </si>
   <si>
-    <t>47,58%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>44,87%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>50,1%</t>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>50,7%</t>
   </si>
   <si>
     <t>En algún momento</t>
   </si>
   <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>28,82%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
   </si>
   <si>
     <t>En ningún momento o en casi ningún momento</t>
   </si>
   <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,325 +194,328 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>47,79%</t>
-  </si>
-  <si>
-    <t>45,2%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>45,91%</t>
+  </si>
+  <si>
+    <t>66,16%</t>
+  </si>
+  <si>
+    <t>42,36%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
   </si>
   <si>
     <t>41,62%</t>
   </si>
   <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
+    <t>57,31%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>44,93%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,68%</t>
+  </si>
+  <si>
+    <t>47,48%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>45,96%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
   </si>
   <si>
     <t>1,38%</t>
   </si>
   <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>36,57%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>45,78%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>45,1%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>42,56%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>39,07%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>39,59%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>44,2%</t>
-  </si>
-  <si>
-    <t>42,03%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>35,25%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -927,7 +930,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EB63CF0-5267-48FC-B4B1-0BC4FFAACDAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BC250CF-D6F7-4044-AE25-7787ADA236A0}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1048,7 +1051,7 @@
         <v>168</v>
       </c>
       <c r="D4" s="7">
-        <v>148665</v>
+        <v>139628</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1063,7 +1066,7 @@
         <v>271</v>
       </c>
       <c r="I4" s="7">
-        <v>170711</v>
+        <v>154489</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1078,7 +1081,7 @@
         <v>439</v>
       </c>
       <c r="N4" s="7">
-        <v>319376</v>
+        <v>294118</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1099,7 +1102,7 @@
         <v>332</v>
       </c>
       <c r="D5" s="7">
-        <v>254740</v>
+        <v>245598</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1114,7 +1117,7 @@
         <v>684</v>
       </c>
       <c r="I5" s="7">
-        <v>390666</v>
+        <v>355434</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1129,7 +1132,7 @@
         <v>1016</v>
       </c>
       <c r="N5" s="7">
-        <v>645405</v>
+        <v>601031</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1150,7 +1153,7 @@
         <v>151</v>
       </c>
       <c r="D6" s="7">
-        <v>108171</v>
+        <v>101412</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1165,7 +1168,7 @@
         <v>357</v>
       </c>
       <c r="I6" s="7">
-        <v>211056</v>
+        <v>187555</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1180,7 +1183,7 @@
         <v>508</v>
       </c>
       <c r="N6" s="7">
-        <v>319227</v>
+        <v>288968</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1201,7 +1204,7 @@
         <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>23832</v>
+        <v>22304</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1216,7 +1219,7 @@
         <v>80</v>
       </c>
       <c r="I7" s="7">
-        <v>45889</v>
+        <v>41775</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1231,7 +1234,7 @@
         <v>112</v>
       </c>
       <c r="N7" s="7">
-        <v>69721</v>
+        <v>64079</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
@@ -1252,7 +1255,7 @@
         <v>683</v>
       </c>
       <c r="D8" s="7">
-        <v>535407</v>
+        <v>508942</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>50</v>
@@ -1267,7 +1270,7 @@
         <v>1392</v>
       </c>
       <c r="I8" s="7">
-        <v>818323</v>
+        <v>739254</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>50</v>
@@ -1282,7 +1285,7 @@
         <v>2075</v>
       </c>
       <c r="N8" s="7">
-        <v>1353730</v>
+        <v>1248196</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>50</v>
@@ -1305,7 +1308,7 @@
         <v>804</v>
       </c>
       <c r="D9" s="7">
-        <v>1029270</v>
+        <v>1194022</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>52</v>
@@ -1320,7 +1323,7 @@
         <v>986</v>
       </c>
       <c r="I9" s="7">
-        <v>932580</v>
+        <v>944244</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>55</v>
@@ -1335,7 +1338,7 @@
         <v>1790</v>
       </c>
       <c r="N9" s="7">
-        <v>1961850</v>
+        <v>2138265</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>58</v>
@@ -1356,7 +1359,7 @@
         <v>878</v>
       </c>
       <c r="D10" s="7">
-        <v>854495</v>
+        <v>835119</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>61</v>
@@ -1371,7 +1374,7 @@
         <v>1389</v>
       </c>
       <c r="I10" s="7">
-        <v>973983</v>
+        <v>981470</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>64</v>
@@ -1386,7 +1389,7 @@
         <v>2267</v>
       </c>
       <c r="N10" s="7">
-        <v>1828478</v>
+        <v>1816588</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>67</v>
@@ -1407,7 +1410,7 @@
         <v>262</v>
       </c>
       <c r="D11" s="7">
-        <v>230180</v>
+        <v>216100</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>70</v>
@@ -1422,7 +1425,7 @@
         <v>454</v>
       </c>
       <c r="I11" s="7">
-        <v>276090</v>
+        <v>250936</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>73</v>
@@ -1437,7 +1440,7 @@
         <v>716</v>
       </c>
       <c r="N11" s="7">
-        <v>506270</v>
+        <v>467036</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>76</v>
@@ -1458,7 +1461,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="7">
-        <v>39745</v>
+        <v>36822</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>79</v>
@@ -1473,7 +1476,7 @@
         <v>78</v>
       </c>
       <c r="I12" s="7">
-        <v>57403</v>
+        <v>52460</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>82</v>
@@ -1488,7 +1491,7 @@
         <v>119</v>
       </c>
       <c r="N12" s="7">
-        <v>97148</v>
+        <v>89282</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>85</v>
@@ -1509,7 +1512,7 @@
         <v>1985</v>
       </c>
       <c r="D13" s="7">
-        <v>2153690</v>
+        <v>2282063</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>50</v>
@@ -1524,7 +1527,7 @@
         <v>2907</v>
       </c>
       <c r="I13" s="7">
-        <v>2240056</v>
+        <v>2229109</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>50</v>
@@ -1539,7 +1542,7 @@
         <v>4892</v>
       </c>
       <c r="N13" s="7">
-        <v>4393746</v>
+        <v>4511171</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>50</v>
@@ -1562,7 +1565,7 @@
         <v>285</v>
       </c>
       <c r="D14" s="7">
-        <v>307807</v>
+        <v>290274</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>89</v>
@@ -1577,7 +1580,7 @@
         <v>408</v>
       </c>
       <c r="I14" s="7">
-        <v>320706</v>
+        <v>291681</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>92</v>
@@ -1592,7 +1595,7 @@
         <v>693</v>
       </c>
       <c r="N14" s="7">
-        <v>628514</v>
+        <v>581955</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>95</v>
@@ -1613,7 +1616,7 @@
         <v>311</v>
       </c>
       <c r="D15" s="7">
-        <v>281581</v>
+        <v>271513</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>98</v>
@@ -1628,7 +1631,7 @@
         <v>448</v>
       </c>
       <c r="I15" s="7">
-        <v>300981</v>
+        <v>284066</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>101</v>
@@ -1643,7 +1646,7 @@
         <v>759</v>
       </c>
       <c r="N15" s="7">
-        <v>582562</v>
+        <v>555579</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>104</v>
@@ -1664,7 +1667,7 @@
         <v>71</v>
       </c>
       <c r="D16" s="7">
-        <v>68129</v>
+        <v>65379</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>107</v>
@@ -1679,7 +1682,7 @@
         <v>128</v>
       </c>
       <c r="I16" s="7">
-        <v>76456</v>
+        <v>70160</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>110</v>
@@ -1694,7 +1697,7 @@
         <v>199</v>
       </c>
       <c r="N16" s="7">
-        <v>144585</v>
+        <v>135539</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>113</v>
@@ -1715,7 +1718,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="7">
-        <v>14800</v>
+        <v>18841</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>116</v>
@@ -1730,31 +1733,31 @@
         <v>17</v>
       </c>
       <c r="I17" s="7">
-        <v>12889</v>
+        <v>11879</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
       </c>
       <c r="N17" s="7">
-        <v>27689</v>
+        <v>30720</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1766,7 +1769,7 @@
         <v>680</v>
       </c>
       <c r="D18" s="7">
-        <v>672317</v>
+        <v>646006</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>50</v>
@@ -1781,7 +1784,7 @@
         <v>1001</v>
       </c>
       <c r="I18" s="7">
-        <v>711033</v>
+        <v>657786</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>50</v>
@@ -1796,7 +1799,7 @@
         <v>1681</v>
       </c>
       <c r="N18" s="7">
-        <v>1383350</v>
+        <v>1303792</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -1819,46 +1822,46 @@
         <v>1257</v>
       </c>
       <c r="D19" s="7">
-        <v>1485742</v>
+        <v>1623924</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>1665</v>
       </c>
       <c r="I19" s="7">
-        <v>1423998</v>
+        <v>1390414</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>2922</v>
       </c>
       <c r="N19" s="7">
-        <v>2909740</v>
+        <v>3014338</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1870,46 +1873,46 @@
         <v>1521</v>
       </c>
       <c r="D20" s="7">
-        <v>1390815</v>
+        <v>1352229</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>2521</v>
       </c>
       <c r="I20" s="7">
-        <v>1665631</v>
+        <v>1620969</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>4042</v>
       </c>
       <c r="N20" s="7">
-        <v>3056446</v>
+        <v>2973198</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1921,46 +1924,46 @@
         <v>484</v>
       </c>
       <c r="D21" s="7">
-        <v>406480</v>
+        <v>382891</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H21" s="7">
         <v>939</v>
       </c>
       <c r="I21" s="7">
-        <v>563602</v>
+        <v>508651</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="M21" s="7">
         <v>1423</v>
       </c>
       <c r="N21" s="7">
-        <v>970083</v>
+        <v>891542</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1972,46 +1975,46 @@
         <v>86</v>
       </c>
       <c r="D22" s="7">
-        <v>78376</v>
+        <v>77966</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>175</v>
       </c>
       <c r="I22" s="7">
-        <v>116182</v>
+        <v>106114</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>261</v>
       </c>
       <c r="N22" s="7">
-        <v>194558</v>
+        <v>184081</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,7 +2026,7 @@
         <v>3348</v>
       </c>
       <c r="D23" s="7">
-        <v>3361414</v>
+        <v>3437011</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2038,7 +2041,7 @@
         <v>5300</v>
       </c>
       <c r="I23" s="7">
-        <v>3769412</v>
+        <v>3626148</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>50</v>
@@ -2053,7 +2056,7 @@
         <v>8648</v>
       </c>
       <c r="N23" s="7">
-        <v>7130826</v>
+        <v>7063159</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2067,7 +2070,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
